--- a/Stocks/BAJAJ-AUTO.xlsx
+++ b/Stocks/BAJAJ-AUTO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>2897.8666666666668</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>2811.6636665225169</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>2798.6872068868588</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>34.080503846687236</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>13.75</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>31.699999999999818</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.43375394321766808</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>2817.490516314152</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>1.8930990383964854</v>
       </c>
       <c r="Y67">
         <v>0.29977507071405241</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>2740</v>
+      </c>
+      <c r="D83">
+        <v>2753.2</v>
+      </c>
+      <c r="E83">
+        <v>2704</v>
+      </c>
+      <c r="F83">
+        <v>2738.15</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>2731.7833333333333</v>
+      </c>
+      <c r="H83">
+        <v>2739.7462612965883</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>2794.126773220471</v>
+      </c>
+      <c r="K83">
+        <v>2741.8615127060657</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N83">
+        <v>34.151970871174889</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>34.150000000000091</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>49.199999999999818</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.694105691056915</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>2779.0725624441147</v>
+      </c>
+      <c r="W83">
+        <v>2800.1291300904941</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-21.056567646379335</v>
+      </c>
+      <c r="Y83">
+        <v>-9.0959432379015617</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>2740</v>
+      </c>
+      <c r="D84">
+        <v>2751.2</v>
+      </c>
+      <c r="E84">
+        <v>2715</v>
+      </c>
+      <c r="F84">
+        <v>2720</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>2728.7333333333331</v>
+      </c>
+      <c r="H84">
+        <v>2734.2397973149609</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>2784.5874902825885</v>
+      </c>
+      <c r="K84">
+        <v>2735.8922876602733</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>28.801018227362075</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>36.199999999999818</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.13812154696132667</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>2769.9844759142511</v>
+      </c>
+      <c r="W84">
+        <v>2794.1936389726798</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-24.209163058428658</v>
+      </c>
+      <c r="Y84">
+        <v>-12.118587202006982</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD84">
+        <f t="shared" si="35"/>
+        <v>2747.05</v>
+      </c>
+      <c r="AE84">
+        <f t="shared" si="36"/>
+        <v>2737.3500000000004</v>
+      </c>
+      <c r="AF84">
+        <f t="shared" si="37"/>
+        <v>2733.1000000000004</v>
+      </c>
+      <c r="AG84">
+        <f t="shared" si="38"/>
+        <v>2728.8500000000004</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>2735</v>
+      </c>
+      <c r="D85">
+        <v>2766.95</v>
+      </c>
+      <c r="E85">
+        <v>2735</v>
+      </c>
+      <c r="F85">
+        <v>2753</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>2751.65</v>
+      </c>
+      <c r="H85">
+        <v>2742.9448986574807</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>2780.6680479975689</v>
+      </c>
+      <c r="K85">
+        <v>2735.694001513546</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>47.496952482598722</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>31.949999999999818</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.56338028169014409</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>2767.371479619751</v>
+      </c>
+      <c r="W85">
+        <v>2791.1422583080366</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-23.770778688285645</v>
+      </c>
+      <c r="Y85">
+        <v>-14.449025499262714</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>2760</v>
+      </c>
+      <c r="D86">
+        <v>2828.45</v>
+      </c>
+      <c r="E86">
+        <v>2731.35</v>
+      </c>
+      <c r="F86">
+        <v>2799.05</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>2786.2833333333328</v>
+      </c>
+      <c r="H86">
+        <v>2764.6141159954068</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>2791.2862595536649</v>
+      </c>
+      <c r="K86">
+        <v>2734.7286678438691</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>63.990555017514531</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>67.700000000000273</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>97.099999999999909</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.69721936148301067</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>2772.2450981397892</v>
+      </c>
+      <c r="W86">
+        <v>2791.7280169518858</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-19.482918812096614</v>
+      </c>
+      <c r="Y86">
+        <v>-15.455804161829494</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>2827.9</v>
+      </c>
+      <c r="D87">
+        <v>2935</v>
+      </c>
+      <c r="E87">
+        <v>2827.9</v>
+      </c>
+      <c r="F87">
+        <v>2916.95</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>2893.2833333333328</v>
+      </c>
+      <c r="H87">
+        <v>2828.9487246643698</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>2823.222646319517</v>
+      </c>
+      <c r="K87">
+        <v>2755.4334083230092</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>82.043475683362388</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>89.049999999999727</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>107.09999999999991</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.83146591970121198</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>2794.5073907336678</v>
+      </c>
+      <c r="W87">
+        <v>2801.0037193998942</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-6.4963286662264181</v>
+      </c>
+      <c r="Y87">
+        <v>-13.663909062708878</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="35"/>
+        <v>2840.1000000000004</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="36"/>
+        <v>2868.8</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="37"/>
+        <v>2881.4500000000003</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="38"/>
+        <v>2894.1000000000004</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>2916</v>
+      </c>
+      <c r="D88">
+        <v>2933.6</v>
+      </c>
+      <c r="E88">
+        <v>2889.95</v>
+      </c>
+      <c r="F88">
+        <v>2910</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>2911.1833333333329</v>
+      </c>
+      <c r="H88">
+        <v>2870.0660289988514</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>2847.7509471374019</v>
+      </c>
+      <c r="K88">
+        <v>2785.3259842512293</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>79.120656554549825</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>20.050000000000182</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>43.650000000000091</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.45933562428408109</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>2812.2754844669498</v>
+      </c>
+      <c r="W88">
+        <v>2809.0775179628649</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>3.1979665040848886</v>
+      </c>
+      <c r="Y88">
+        <v>-10.291533949350125</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>2927</v>
+      </c>
+      <c r="D89">
+        <v>2969.7</v>
+      </c>
+      <c r="E89">
+        <v>2905.05</v>
+      </c>
+      <c r="F89">
+        <v>2950</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>2941.5833333333335</v>
+      </c>
+      <c r="H89">
+        <v>2905.8246811660924</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>2874.8507366624235</v>
+      </c>
+      <c r="K89">
+        <v>2811.9313210842897</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>83.380245525227764</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>44.949999999999818</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>64.649999999999636</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.69528228924980773</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>2833.4638714720345</v>
+      </c>
+      <c r="W89">
+        <v>2819.516220335986</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>13.947651136048535</v>
+      </c>
+      <c r="Y89">
+        <v>-5.4436969322703925</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>2938</v>
+      </c>
+      <c r="D90">
+        <v>2939</v>
+      </c>
+      <c r="E90">
+        <v>2900.05</v>
+      </c>
+      <c r="F90">
+        <v>2915</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>2918.0166666666664</v>
+      </c>
+      <c r="H90">
+        <v>2911.9206739163792</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>2889.1061285152182</v>
+      </c>
+      <c r="K90">
+        <v>2831.5132497322252</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>68.169255751921071</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>14.949999999999818</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>38.949999999999818</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.38382541720153757</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>2846.0078912455679</v>
+      </c>
+      <c r="W90">
+        <v>2826.5890929036909</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>19.418798341876936</v>
+      </c>
+      <c r="Y90">
+        <v>-0.47119787744092623</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>2940</v>
+      </c>
+      <c r="D91">
+        <v>2977</v>
+      </c>
+      <c r="E91">
+        <v>2900.95</v>
+      </c>
+      <c r="F91">
+        <v>2964.75</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>2947.5666666666671</v>
+      </c>
+      <c r="H91">
+        <v>2929.7436702915229</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>2908.6380999562807</v>
+      </c>
+      <c r="K91">
+        <v>2846.9436386806196</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>75.961149950153413</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>63.800000000000182</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>76.050000000000182</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.83892176199868551</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V91">
+        <v>2864.275907977019</v>
+      </c>
+      <c r="W91">
+        <v>2836.8232341700841</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>27.452673806934854</v>
+      </c>
+      <c r="Y91">
+        <v>5.1135764594342303</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="35"/>
+        <v>2909.6000000000004</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="36"/>
+        <v>2930</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="37"/>
+        <v>2938.9500000000003</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="38"/>
+        <v>2947.9500000000003</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>2952</v>
+      </c>
+      <c r="D92">
+        <v>2984.5</v>
+      </c>
+      <c r="E92">
+        <v>2906.2</v>
+      </c>
+      <c r="F92">
+        <v>2910</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>2933.5666666666671</v>
+      </c>
+      <c r="H92">
+        <v>2931.6551684790948</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>2925.4962999659961</v>
+      </c>
+      <c r="K92">
+        <v>2860.1117189738152</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>56.825587247788022</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>3.8000000000001819</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>78.300000000000182</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>4.8531289910602467E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>2871.3103836728624</v>
+      </c>
+      <c r="W92">
+        <v>2842.2437353426703</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>29.066648330192038</v>
+      </c>
+      <c r="Y92">
+        <v>9.9041908335857922</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>2940</v>
+      </c>
+      <c r="D93">
+        <v>2948</v>
+      </c>
+      <c r="E93">
+        <v>2910</v>
+      </c>
+      <c r="F93">
+        <v>2933</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>2930.3333333333335</v>
+      </c>
+      <c r="H93">
+        <v>2930.9942509062139</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>2930.4971221957749</v>
+      </c>
+      <c r="K93">
+        <v>2871.1980036463005</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>61.869585821465364</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>38</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.60526315789473684</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>2880.8010938770376</v>
+      </c>
+      <c r="W93">
+        <v>2848.9664216135839</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>31.83467226345374</v>
+      </c>
+      <c r="Y93">
+        <v>14.29028711955938</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>2939</v>
+      </c>
+      <c r="D94">
+        <v>2946.95</v>
+      </c>
+      <c r="E94">
+        <v>2915</v>
+      </c>
+      <c r="F94">
+        <v>2935.95</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>2932.6333333333332</v>
+      </c>
+      <c r="H94">
+        <v>2931.8137921197736</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>2934.1533172633804</v>
+      </c>
+      <c r="K94">
+        <v>2880.9317806137892</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>62.570661436185674</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>20.949999999999818</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>31.949999999999818</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.65571205007824529</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>2889.2855409728782</v>
+      </c>
+      <c r="W94">
+        <v>2855.4096496422071</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>33.875891330671038</v>
+      </c>
+      <c r="Y94">
+        <v>18.207407961781712</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>2929</v>
+      </c>
+      <c r="D95">
+        <v>2974</v>
+      </c>
+      <c r="E95">
+        <v>2920</v>
+      </c>
+      <c r="F95">
+        <v>2937.55</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>2943.85</v>
+      </c>
+      <c r="H95">
+        <v>2937.8318960598867</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>2943.008135649296</v>
+      </c>
+      <c r="K95">
+        <v>2889.6136071440583</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>63.031483580793648</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>17.550000000000182</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>54</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.32500000000000334</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>2896.710842361666</v>
+      </c>
+      <c r="W95">
+        <v>2861.4941200390808</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>35.216722322585156</v>
+      </c>
+      <c r="Y95">
+        <v>21.6092708339424</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>2945</v>
+      </c>
+      <c r="D96">
+        <v>2956.95</v>
+      </c>
+      <c r="E96">
+        <v>2916.05</v>
+      </c>
+      <c r="F96">
+        <v>2925.9</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>2932.9666666666667</v>
+      </c>
+      <c r="H96">
+        <v>2935.3992813632767</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>2946.1063277272301</v>
+      </c>
+      <c r="K96">
+        <v>2895.4883611120454</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>56.680107762190261</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>9.8499999999999091</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>40.899999999999636</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.2408312958435207</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>2901.2014819983328</v>
+      </c>
+      <c r="W96">
+        <v>2866.2649259621121</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>34.936556036220736</v>
+      </c>
+      <c r="Y96">
+        <v>24.274727874398067</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>2918</v>
+      </c>
+      <c r="D97">
+        <v>3036.05</v>
+      </c>
+      <c r="E97">
+        <v>2901.5</v>
+      </c>
+      <c r="F97">
+        <v>3030</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>2989.1833333333329</v>
+      </c>
+      <c r="H97">
+        <v>2962.2913073483051</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>2966.0938104545125</v>
+      </c>
+      <c r="K97">
+        <v>2896.8242808649243</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>79.61895395048775</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>128.5</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>134.55000000000018</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.95503530286138849</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V97">
+        <v>2921.016638613974</v>
+      </c>
+      <c r="W97">
+        <v>2878.3934499649185</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>42.623188649055464</v>
+      </c>
+      <c r="Y97">
+        <v>27.944420029329546</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>3045.1</v>
+      </c>
+      <c r="D98">
+        <v>3149</v>
+      </c>
+      <c r="E98">
+        <v>3045.1</v>
+      </c>
+      <c r="F98">
+        <v>3138</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>3110.7000000000003</v>
+      </c>
+      <c r="H98">
+        <v>3036.4956536741529</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>3006.7396303535097</v>
+      </c>
+      <c r="K98">
+        <v>2929.7744406727188</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>87.916616851852126</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>92.900000000000091</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>103.90000000000009</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.89412897016361892</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V98">
+        <v>2954.398694211824</v>
+      </c>
+      <c r="W98">
+        <v>2897.6235647823319</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>56.775129429492154</v>
+      </c>
+      <c r="Y98">
+        <v>33.71056190936207</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD98">
+        <f t="shared" si="35"/>
+        <v>3056.9500000000003</v>
+      </c>
+      <c r="AE98">
+        <f t="shared" si="36"/>
+        <v>3084.8</v>
+      </c>
+      <c r="AF98">
+        <f t="shared" si="37"/>
+        <v>3097.05</v>
+      </c>
+      <c r="AG98">
+        <f t="shared" si="38"/>
+        <v>3109.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>3138</v>
+      </c>
+      <c r="D99">
+        <v>3155.05</v>
+      </c>
+      <c r="E99">
+        <v>3108.3</v>
+      </c>
+      <c r="F99">
+        <v>3120</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>3127.7833333333333</v>
+      </c>
+      <c r="H99">
+        <v>3082.1394935037433</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>3039.6974902749521</v>
+      </c>
+      <c r="K99">
+        <v>2969.4467871898923</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>81.042733460901857</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>11.699999999999818</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>46.75</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.25026737967914048</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>2979.8758181792359</v>
+      </c>
+      <c r="W99">
+        <v>2914.0958933169741</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>65.779924862261851</v>
+      </c>
+      <c r="Y99">
+        <v>40.124434499942026</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>3115</v>
+      </c>
+      <c r="D100">
+        <v>3119.7</v>
+      </c>
+      <c r="E100">
+        <v>3084.2</v>
+      </c>
+      <c r="F100">
+        <v>3093</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>3098.9666666666667</v>
+      </c>
+      <c r="H100">
+        <v>3090.5530800852048</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>3057.475825769407</v>
+      </c>
+      <c r="K100">
+        <v>2994.9475011476939</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>70.680943114870416</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>8.8000000000001819</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>35.5</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.24788732394366711</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>2997.2795384593533</v>
+      </c>
+      <c r="W100">
+        <v>2927.3480493675684</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>69.931489091784897</v>
+      </c>
+      <c r="Y100">
+        <v>46.085845418310598</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>3090.55</v>
+      </c>
+      <c r="D101">
+        <v>3135</v>
+      </c>
+      <c r="E101">
+        <v>3068.65</v>
+      </c>
+      <c r="F101">
+        <v>3077</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>3093.5499999999997</v>
+      </c>
+      <c r="H101">
+        <v>3092.051540042602</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>3074.703420042872</v>
+      </c>
+      <c r="K101">
+        <v>3011.3258342259842</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>64.566020424657438</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>8.3499999999999091</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>66.349999999999909</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.12584777694046603</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>3009.5442248502218</v>
+      </c>
+      <c r="W101">
+        <v>2938.4333790440446</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>71.110845806177167</v>
+      </c>
+      <c r="Y101">
+        <v>51.090845495883912</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>3064</v>
+      </c>
+      <c r="D102">
+        <v>3084.65</v>
+      </c>
+      <c r="E102">
+        <v>3008.05</v>
+      </c>
+      <c r="F102">
+        <v>3025</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>3039.2333333333336</v>
+      </c>
+      <c r="H102">
+        <v>3065.6424366879678</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>3076.9137711444559</v>
+      </c>
+      <c r="K102">
+        <v>3010.5978710646546</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>47.774839372469089</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>16.949999999999818</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>76.599999999999909</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.2212793733681441</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>3011.9220364117259</v>
+      </c>
+      <c r="W102">
+        <v>2944.8457213370784</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>67.076315074647482</v>
+      </c>
+      <c r="Y102">
+        <v>54.287939411636629</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>3058.4</v>
+      </c>
+      <c r="D103">
+        <v>3058.4</v>
+      </c>
+      <c r="E103">
+        <v>3004.8</v>
+      </c>
+      <c r="F103">
+        <v>3042.55</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>3035.25</v>
+      </c>
+      <c r="H103">
+        <v>3050.4462183439837</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>3072.7995997790213</v>
+      </c>
+      <c r="K103">
+        <v>3009.3094552725092</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>52.938168829457801</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>37.75</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>53.599999999999909</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.70429104477612059</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>3016.634030809922</v>
+      </c>
+      <c r="W103">
+        <v>2952.0830753121095</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>64.550955497812538</v>
+      </c>
+      <c r="Y103">
+        <v>56.340542628871809</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>3032</v>
+      </c>
+      <c r="D104">
+        <v>3058</v>
+      </c>
+      <c r="E104">
+        <v>3030</v>
+      </c>
+      <c r="F104">
+        <v>3043</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>3043.6666666666665</v>
+      </c>
+      <c r="H104">
+        <v>3047.0564425053253</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>3069.5107998281278</v>
+      </c>
+      <c r="K104">
+        <v>3013.9073541008406</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>53.086827505824338</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>28</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>3020.6903337622416</v>
+      </c>
+      <c r="W104">
+        <v>2958.8176623260274</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>61.872671436214205</v>
+      </c>
+      <c r="Y104">
+        <v>57.446968390340288</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>3055.2</v>
+      </c>
+      <c r="D105">
+        <v>3066</v>
+      </c>
+      <c r="E105">
+        <v>3007</v>
+      </c>
+      <c r="F105">
+        <v>3030</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>3034.3333333333335</v>
+      </c>
+      <c r="H105">
+        <v>3040.6948879193296</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>3068.7306220885439</v>
+      </c>
+      <c r="K105">
+        <v>3012.3723865228762</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>47.651352270785686</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>59</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.38983050847457629</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>3022.1225901065122</v>
+      </c>
+      <c r="W105">
+        <v>2964.0904280796549</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>58.03216202685735</v>
+      </c>
+      <c r="Y105">
+        <v>57.564007117643698</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>3034</v>
+      </c>
+      <c r="D106">
+        <v>3056</v>
+      </c>
+      <c r="E106">
+        <v>3019.05</v>
+      </c>
+      <c r="F106">
+        <v>3037</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>3037.35</v>
+      </c>
+      <c r="H106">
+        <v>3039.022443959665</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>3065.9015949577565</v>
+      </c>
+      <c r="K106">
+        <v>3013.8563006289037</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>51.026382263697926</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>17.949999999999818</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>36.949999999999818</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.48579161028416529</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>3024.4114223978181</v>
+      </c>
+      <c r="W106">
+        <v>2969.4911371107914</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>54.920285287026672</v>
+      </c>
+      <c r="Y106">
+        <v>57.035262751520293</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>3064</v>
+      </c>
+      <c r="D107">
+        <v>3138.6</v>
+      </c>
+      <c r="E107">
+        <v>3051.15</v>
+      </c>
+      <c r="F107">
+        <v>3113.75</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>3101.1666666666665</v>
+      </c>
+      <c r="H107">
+        <v>3070.094555313166</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>3082.056796078255</v>
+      </c>
+      <c r="K107">
+        <v>3022.1437893780362</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N107">
+        <v>74.000182090776718</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>62.599999999999909</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>87.449999999999818</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.71583762149799934</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>3038.1558189520001</v>
+      </c>
+      <c r="W107">
+        <v>2980.1769788062884</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>57.978840145711729</v>
+      </c>
+      <c r="Y107">
+        <v>57.223978230358583</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
